--- a/nuno-dataset/test-oxigen-01/content/results/metrics_12_3.xlsx
+++ b/nuno-dataset/test-oxigen-01/content/results/metrics_12_3.xlsx
@@ -478,218 +478,218 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_18</t>
+          <t>model_12_3_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7043540433446762</v>
+        <v>0.7163343551151435</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.87939777839518</v>
+        <v>0.2116952027380578</v>
       </c>
       <c r="D2" t="n">
-        <v>0.547108782458158</v>
+        <v>0.8214247572930771</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.6419948633689212</v>
+        <v>0.7027398888239587</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3271929621696472</v>
+        <v>0.3139342963695526</v>
       </c>
       <c r="G2" t="n">
-        <v>1.316184163093567</v>
+        <v>0.2002371996641159</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3622047007083893</v>
+        <v>0.1182246208190918</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8672528266906738</v>
+        <v>0.1616432517766953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_20</t>
+          <t>model_12_3_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7060513550997141</v>
+        <v>0.7560738676548382</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.832281324767208</v>
+        <v>-0.1896065430967537</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5424264283598439</v>
+        <v>0.5794930260491453</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.6325918566580135</v>
+        <v>0.464886856554132</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3253145217895508</v>
+        <v>0.2699543535709381</v>
       </c>
       <c r="G3" t="n">
-        <v>1.3034747838974</v>
+        <v>0.3021718263626099</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3659494519233704</v>
+        <v>0.2783939838409424</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8622864484786987</v>
+        <v>0.2909823060035706</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_24</t>
+          <t>model_12_3_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7070738950578406</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.835101788567723</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5466558930195179</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6303404485038797</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3241828382015228</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G4" t="n">
-        <v>1.304235696792603</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3625669181346893</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8610972762107849</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_22</t>
+          <t>model_12_3_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7072411476067277</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.796173988582051</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5361291829177124</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.6273172857016429</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3239977657794952</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G5" t="n">
-        <v>1.293735027313232</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H5" t="n">
-        <v>0.370985746383667</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8595005869865417</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_23</t>
+          <t>model_12_3_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.708385390494326</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.800998978225661</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5475314677227126</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.620496505069021</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3227314352989197</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G6" t="n">
-        <v>1.295036673545837</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3618666529655457</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8558981418609619</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_21</t>
+          <t>model_12_3_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7103364498257125</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.710321340725898</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5342969891860028</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.6054084930408534</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F7" t="n">
-        <v>0.320572167634964</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G7" t="n">
-        <v>1.270576953887939</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3724510669708252</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8479290008544922</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_19</t>
+          <t>model_12_3_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7107057571354314</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.711707637906714</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5442063047752612</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.59872322683751</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3201634883880615</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G8" t="n">
-        <v>1.27095091342926</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3645260035991669</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I8" t="n">
-        <v>0.844398021697998</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="9">
@@ -699,28 +699,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7162811433695782</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.58330121610737</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D9" t="n">
-        <v>0.552790213659504</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5578895297452482</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3139931857585907</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G9" t="n">
-        <v>1.236314296722412</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3576609194278717</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I9" t="n">
-        <v>0.822830855846405</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="10">
@@ -730,90 +730,90 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7195654686762909</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.495856156162432</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5529174708917934</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5341544874855657</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3103583753108978</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G10" t="n">
-        <v>1.212726354598999</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3575591444969177</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8102947473526001</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_14</t>
+          <t>model_12_3_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7211196570753348</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.428932389483309</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5481678638520495</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.519444016744417</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3086383640766144</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G11" t="n">
-        <v>1.194674134254456</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3613576889038086</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8025251626968384</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_15</t>
+          <t>model_12_3_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7213295377137259</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.429713068602955</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5476427908020796</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5200295867606486</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3084060847759247</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G12" t="n">
-        <v>1.194884896278381</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3617776036262512</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8028343915939331</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="13">
@@ -823,90 +823,90 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7273860557831007</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.290270370059844</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5643448995109226</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4704257594942349</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3017033040523529</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G13" t="n">
-        <v>1.157271146774292</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3484199345111847</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7766351699829102</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_11</t>
+          <t>model_12_3_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7301518630521009</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.243825680728908</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5745999647575433</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.4505608845926838</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2986423969268799</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G14" t="n">
-        <v>1.144742965698242</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3402183353900909</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7661432027816772</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_12</t>
+          <t>model_12_3_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7332694207374155</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.167777055380101</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5758397460711592</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.4291156582717042</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F15" t="n">
-        <v>0.295192152261734</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G15" t="n">
-        <v>1.124229311943054</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3392268121242523</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7548164129257202</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="16">
@@ -916,28 +916,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7332896198462009</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.166743565411253</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5779434296766204</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.4273373751220269</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2951697707176208</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G16" t="n">
-        <v>1.123950481414795</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3375443816184998</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7538771033287048</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="17">
@@ -947,28 +947,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7373953371886071</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.07801643581897</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5871988366658749</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.3967530319014165</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2906259894371033</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G17" t="n">
-        <v>1.100017070770264</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3301422595977783</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7377233505249023</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="18">
@@ -978,28 +978,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7458757782562901</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.867018350597032</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5929786127639367</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.3355853280408669</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2812406420707703</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G18" t="n">
-        <v>1.043101787567139</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3255198001861572</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7054163813591003</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="19">
@@ -1009,28 +1009,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7534282751290899</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.667476129279642</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5933549463232725</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2813649958002098</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2728822529315948</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9892765879631042</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3252188265323639</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6767788529396057</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="20">
@@ -1040,28 +1040,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7555131575758605</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.601618103389577</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5956109547446755</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2619507613826828</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2705748975276947</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9715117216110229</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3234145641326904</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6665248870849609</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="21">
@@ -1071,28 +1071,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7625550463890393</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.483529234632098</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D21" t="n">
-        <v>0.623304990558202</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2102883635239658</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2627816200256348</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9396582841873169</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3012659549713135</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6392382979393005</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="22">
@@ -1102,28 +1102,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7813261366426651</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.979665158630318</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6242203487550249</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.07340239285939831</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2420075237751007</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8037442564964294</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3005338907241821</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5669392347335815</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="23">
@@ -1133,28 +1133,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7833186930540758</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.89944884522728</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6303073574213868</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.04737637193896194</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F23" t="n">
-        <v>0.239802360534668</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7821065187454224</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2956657409667969</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5531930327415466</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="24">
@@ -1164,90 +1164,90 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8008185731527115</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.41139689341013</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6551963982322652</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1023166328845628</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2204351425170898</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6504578590393066</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2757604420185089</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4741296768188477</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_1</t>
+          <t>model_12_3_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.840774833475485</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2459578375084417</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6641873752908817</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4238314685958912</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F25" t="n">
-        <v>0.176215335726738</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3360885977745056</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2685698270797729</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I25" t="n">
-        <v>0.304315060377121</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_0</t>
+          <t>model_12_3_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8416378173772034</v>
+        <v>0.7676871150971099</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8277588467816764</v>
+        <v>0.09538780734470997</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8923334518733373</v>
+        <v>0.5019516181356489</v>
       </c>
       <c r="E26" t="n">
-        <v>0.876709977845024</v>
+        <v>0.4909392965204002</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1752602756023407</v>
+        <v>0.2571019232273102</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04646087065339088</v>
+        <v>0.2297804057598114</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08610750734806061</v>
+        <v>0.3297297954559326</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06511813402175903</v>
+        <v>0.2768155932426453</v>
       </c>
     </row>
   </sheetData>
